--- a/02_Codigo fuente/Web_SCAEW/covidcinvestav/httpdocs/csv/dataset_places_format.xlsx
+++ b/02_Codigo fuente/Web_SCAEW/covidcinvestav/httpdocs/csv/dataset_places_format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin-LT\Documents\CINVESTAV 2020\Ingeniera del software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin-LT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Codigos actividad" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>latitud</t>
   </si>
@@ -146,57 +145,6 @@
   </si>
   <si>
     <t>Actividad economica</t>
-  </si>
-  <si>
-    <t>NIK MART CO DISTRIBUCION DE ALIMENTOS</t>
-  </si>
-  <si>
-    <t>INDUSTRIA NAVIERA</t>
-  </si>
-  <si>
-    <t>LA GLORIA DEL COLLI</t>
-  </si>
-  <si>
-    <t>JALISCO</t>
-  </si>
-  <si>
-    <t>Zapopan</t>
-  </si>
-  <si>
-    <t>jbcamacho01@gmail.com</t>
-  </si>
-  <si>
-    <t>PRODUCTOS VERDE VALLE</t>
-  </si>
-  <si>
-    <t>VALLARTA EJE PONIENTE</t>
-  </si>
-  <si>
-    <t>SANTA MARIA DEL PUEBLITO</t>
-  </si>
-  <si>
-    <t>COOPERATIVA COMERCIAL EN SERVICIOS Y BIENES NICTE</t>
-  </si>
-  <si>
-    <t>QUETZALCOATL</t>
-  </si>
-  <si>
-    <t>JARDINES DEL SOL</t>
-  </si>
-  <si>
-    <t>COMERCIALIZADORA DE FRUTOS DE OCCIDENTE</t>
-  </si>
-  <si>
-    <t>MANUEL J. CLOUTHIER</t>
-  </si>
-  <si>
-    <t>LA PANERA</t>
-  </si>
-  <si>
-    <t>TCHAIKOVSKI</t>
-  </si>
-  <si>
-    <t>PLAZA GUADALUPE</t>
   </si>
 </sst>
 </file>
@@ -514,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,211 +513,6 @@
       </c>
       <c r="M1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>431199</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2">
-        <v>184</v>
-      </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2">
-        <v>45010</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2">
-        <v>20.656148250000001</v>
-      </c>
-      <c r="L2">
-        <v>-103.44917959999999</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>431150</v>
-      </c>
-      <c r="C3">
-        <v>350</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
-        <v>5683</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>44010</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3">
-        <v>20.682204500000001</v>
-      </c>
-      <c r="L3">
-        <v>-103.43758529999999</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>431150</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>4368</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4">
-        <v>45050</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4">
-        <v>20.650438170000001</v>
-      </c>
-      <c r="L4">
-        <v>-103.41233990000001</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5">
-        <v>431211</v>
-      </c>
-      <c r="C5">
-        <v>110</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5">
-        <v>1060</v>
-      </c>
-      <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5">
-        <v>45050</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>20.650826120000001</v>
-      </c>
-      <c r="L5">
-        <v>-103.4262861</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>461190</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6">
-        <v>755</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>45030</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>20.663264940000001</v>
-      </c>
-      <c r="L6">
-        <v>-103.43698120000001</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1019,6 +762,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E4AA135BBE572840BF5F06BB9AC76FCB" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5b65652e59d63690d8082a1f084df5fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="97707d30-d5e7-4caf-90f5-abccd8d6c46f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b3cdad88697310b4f9fc390916a46d6" ns2:_="">
     <xsd:import namespace="97707d30-d5e7-4caf-90f5-abccd8d6c46f"/>
@@ -1150,15 +902,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4BF0BB-6C1D-4F8B-A349-09E58CA065EA}">
   <ds:schemaRefs>
@@ -1176,6 +919,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830C4DBB-8909-4EF6-BAE6-0C1E6D28784C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEB3DB3A-D9C1-4713-8053-2EB49AADC321}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1191,12 +942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{830C4DBB-8909-4EF6-BAE6-0C1E6D28784C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>